--- a/設計/機能一覧・ルーティング設計(2025.xlsx
+++ b/設計/機能一覧・ルーティング設計(2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030921\Documents\GitHub\Tanihataya\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87448E2-7417-42C8-B2DF-3647B4E52E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2F3C16-F22C-4DA1-8845-679B5B61D98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="0" windowWidth="16050" windowHeight="10905" activeTab="1" xr2:uid="{3E3D5F8C-6921-4B59-A20F-F4DF7C38E181}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3E3D5F8C-6921-4B59-A20F-F4DF7C38E181}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
@@ -1615,7 +1615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1626,9 +1626,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1637,9 +1634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1649,9 +1643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1667,107 +1658,95 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,7 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D13B08-26A8-4E12-8A02-752D34DFE2A4}">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2137,324 +2116,324 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:5" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2468,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A72467-887C-4BA0-9D65-861B27C0108C}">
-  <dimension ref="A2:I21"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2487,419 +2466,396 @@
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="44"/>
-      <c r="C5" s="42" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="38"/>
+      <c r="C5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="44"/>
-      <c r="C6" s="42" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="38"/>
+      <c r="C6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46" t="s">
+    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="39"/>
+      <c r="C7" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="17"/>
-      <c r="C9" s="29" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="40"/>
+      <c r="C9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="40"/>
+      <c r="C10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="17"/>
-      <c r="C11" s="29" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="40"/>
+      <c r="C11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="17"/>
-      <c r="C12" s="29" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="40"/>
+      <c r="C12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="17"/>
-      <c r="C13" s="32" t="s">
+    <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="40"/>
+      <c r="C13" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="38"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="42" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="42"/>
+      <c r="C15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="38"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="46" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="42"/>
+      <c r="C16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="49" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="42"/>
+      <c r="C17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="18"/>
-      <c r="C18" s="49" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="42"/>
+      <c r="C18" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="37"/>
-      <c r="C19" s="50" t="s">
+    <row r="19" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="43"/>
+      <c r="C19" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="48" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
